--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="14440" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="36">
   <si>
     <t>x</t>
   </si>
@@ -124,13 +124,16 @@
   </si>
   <si>
     <t>Numbers of Doors = 18</t>
+  </si>
+  <si>
+    <t>White:  doors and their direction test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,6 +195,22 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -279,7 +298,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -290,6 +309,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -636,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -682,7 +709,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="9" t="s">
         <v>21</v>
       </c>
       <c r="M1" s="5" t="s">
@@ -723,7 +750,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -809,7 +836,7 @@
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -1158,7 +1185,7 @@
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -2096,7 +2123,7 @@
       <c r="Q21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="R21" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S21" s="2" t="s">
@@ -2259,6 +2286,19 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="V24" s="7"/>
+    </row>
+    <row r="25" spans="1:22" ht="64" customHeight="1">
+      <c r="A25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
